--- a/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5851236-5FAD-4651-A295-4C87EE6B701C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A869F69B-F366-45B8-92FB-FB8663DF80BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81B18BE2-B02B-44A0-9908-62706C18098C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E0CFBC5-C8E2-4F8E-A87A-109D941FA49A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,787 +77,823 @@
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>95,7%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>96,29%</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8F60D2-39CB-4B02-A173-D1179C102060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DDE526-C7E9-4C8D-A025-340E3D1D898C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1900,7 @@
         <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -1873,13 +1909,13 @@
         <v>132277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -1888,13 +1924,13 @@
         <v>210489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,16 +1942,16 @@
         <v>3139</v>
       </c>
       <c r="D14" s="7">
-        <v>3197312</v>
+        <v>3197313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>3169</v>
@@ -1924,28 +1960,28 @@
         <v>3246921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>6308</v>
       </c>
       <c r="N14" s="7">
-        <v>6444233</v>
+        <v>6444234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,7 +1993,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -1987,7 +2023,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -2001,7 +2037,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709E2F5A-1C1C-4AF1-9775-D772B5D94C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DF1B9C-0CC0-4C33-95B0-3A26A3AFD912}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2037,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2144,13 +2180,13 @@
         <v>26445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -2159,13 +2195,13 @@
         <v>59389</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
@@ -2174,13 +2210,13 @@
         <v>85834</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2231,13 @@
         <v>945392</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1186</v>
@@ -2210,13 +2246,13 @@
         <v>1273202</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>2069</v>
@@ -2225,13 +2261,13 @@
         <v>2218594</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2335,13 @@
         <v>65273</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -2314,13 +2350,13 @@
         <v>102884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>158</v>
@@ -2329,13 +2365,13 @@
         <v>168158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2386,13 @@
         <v>1894749</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1532</v>
@@ -2365,13 +2401,13 @@
         <v>1647878</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>3323</v>
@@ -2380,13 +2416,13 @@
         <v>3542626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2490,13 @@
         <v>24891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2469,13 +2505,13 @@
         <v>32933</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -2484,13 +2520,13 @@
         <v>57823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2541,13 @@
         <v>455441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>381</v>
@@ -2520,13 +2556,13 @@
         <v>424721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>797</v>
@@ -2535,13 +2571,13 @@
         <v>880163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2645,13 @@
         <v>116610</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -2624,13 +2660,13 @@
         <v>195206</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -2639,13 +2675,13 @@
         <v>311815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2696,13 @@
         <v>3295581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>3099</v>
@@ -2675,13 +2711,13 @@
         <v>3345801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6189</v>
@@ -2690,13 +2726,13 @@
         <v>6641383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2788,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9CB6E8-9F21-4D74-8F9F-A0C7CFA6786E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE630392-1AE5-42B0-8BB7-86934C630AA4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2788,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2895,13 +2931,13 @@
         <v>20088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -2910,13 +2946,13 @@
         <v>39832</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -2925,13 +2961,13 @@
         <v>59920</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2982,13 @@
         <v>734259</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>857</v>
@@ -2961,13 +2997,13 @@
         <v>954828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1598</v>
@@ -2976,13 +3012,13 @@
         <v>1689087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3086,13 @@
         <v>59387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -3065,13 +3101,13 @@
         <v>110922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -3080,13 +3116,13 @@
         <v>170309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3137,13 @@
         <v>2016998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1802</v>
@@ -3116,13 +3152,13 @@
         <v>1877378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3698</v>
@@ -3131,13 +3167,13 @@
         <v>3894376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3241,13 @@
         <v>24762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -3220,13 +3256,13 @@
         <v>38678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -3235,13 +3271,13 @@
         <v>63439</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3292,13 @@
         <v>522124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>491</v>
@@ -3271,13 +3307,13 @@
         <v>510462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>969</v>
@@ -3286,13 +3322,13 @@
         <v>1032587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3396,13 @@
         <v>104236</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>176</v>
@@ -3375,13 +3411,13 @@
         <v>189432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -3390,13 +3426,13 @@
         <v>293668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3447,13 @@
         <v>3273382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>3150</v>
@@ -3426,13 +3462,13 @@
         <v>3342668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>6265</v>
@@ -3441,13 +3477,13 @@
         <v>6616050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1198120-60E3-462C-B396-A3820493D9D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1152AC0D-5C6B-4A5E-9D8D-3397A4D441F3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3539,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3646,13 +3682,13 @@
         <v>9444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -3661,13 +3697,13 @@
         <v>29442</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -3676,13 +3712,13 @@
         <v>38886</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3733,13 @@
         <v>530598</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>1374</v>
@@ -3712,13 +3748,13 @@
         <v>802126</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>2053</v>
@@ -3727,13 +3763,13 @@
         <v>1332725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3837,13 @@
         <v>85705</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -3816,13 +3852,13 @@
         <v>122330</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>217</v>
@@ -3831,13 +3867,13 @@
         <v>208035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,28 +3888,28 @@
         <v>2076317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>2777</v>
       </c>
       <c r="I8" s="7">
-        <v>2126466</v>
+        <v>2126465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>4695</v>
@@ -3882,13 +3918,13 @@
         <v>4202782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,7 +3951,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3956,13 +3992,13 @@
         <v>16573</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3971,13 +4007,13 @@
         <v>40439</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -3986,13 +4022,13 @@
         <v>57011</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4043,13 @@
         <v>656466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
@@ -4022,13 +4058,13 @@
         <v>673447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>1614</v>
@@ -4037,13 +4073,13 @@
         <v>1329915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4147,13 @@
         <v>111722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -4126,13 +4162,13 @@
         <v>192211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>347</v>
@@ -4141,13 +4177,13 @@
         <v>303933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4198,13 @@
         <v>3263382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>5102</v>
@@ -4177,13 +4213,13 @@
         <v>3602039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>8362</v>
@@ -4192,13 +4228,13 @@
         <v>6865421</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4290,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A869F69B-F366-45B8-92FB-FB8663DF80BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F15F244-382B-4840-B737-7FDD17FBA5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E0CFBC5-C8E2-4F8E-A87A-109D941FA49A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E4F4F05-550C-4F3D-9880-E4E03086C71D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,817 +77,811 @@
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
   </si>
   <si>
     <t>94,91%</t>
@@ -1305,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DDE526-C7E9-4C8D-A025-340E3D1D898C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1492628-169B-4864-8DF0-2BE6850B9ABE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1465,13 +1459,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>1018</v>
@@ -1480,13 +1474,13 @@
         <v>1011686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1244</v>
@@ -1495,13 +1489,13 @@
         <v>1267115</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2262</v>
@@ -1510,13 +1504,13 @@
         <v>2278801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,13 +1525,13 @@
         <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1291</v>
@@ -1546,13 +1540,13 @@
         <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2329</v>
@@ -1561,18 +1555,18 @@
         <v>2346836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1584,13 +1578,13 @@
         <v>35856</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -1599,13 +1593,13 @@
         <v>64905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -1614,19 +1608,19 @@
         <v>100761</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1614</v>
@@ -1635,13 +1629,13 @@
         <v>1656538</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1490</v>
@@ -1650,13 +1644,13 @@
         <v>1522768</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3104</v>
@@ -1665,13 +1659,13 @@
         <v>3179307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,13 +1680,13 @@
         <v>1692394</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1554</v>
@@ -1701,13 +1695,13 @@
         <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3202</v>
@@ -1716,18 +1710,18 @@
         <v>3280068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1739,13 +1733,13 @@
         <v>22320</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -1754,13 +1748,13 @@
         <v>19374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -1769,19 +1763,19 @@
         <v>41694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>507</v>
@@ -1790,13 +1784,13 @@
         <v>529088</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>435</v>
@@ -1805,13 +1799,13 @@
         <v>457038</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>942</v>
@@ -1820,13 +1814,13 @@
         <v>986126</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,13 +1835,13 @@
         <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1856,13 +1850,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>979</v>
@@ -1871,13 +1865,13 @@
         <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,13 +1888,13 @@
         <v>78213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -1909,13 +1903,13 @@
         <v>132277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -1924,34 +1918,34 @@
         <v>210489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3139</v>
       </c>
       <c r="D14" s="7">
-        <v>3197313</v>
+        <v>3197312</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3169</v>
@@ -1960,13 +1954,13 @@
         <v>3246921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6308</v>
@@ -1975,13 +1969,13 @@
         <v>6444234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,16 +1987,16 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3297</v>
@@ -2011,13 +2005,13 @@
         <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6510</v>
@@ -2026,18 +2020,18 @@
         <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DF1B9C-0CC0-4C33-95B0-3A26A3AFD912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22868D4-CF26-44FC-A470-3A34C550EFB2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2073,7 +2067,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2180,13 +2174,13 @@
         <v>26445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -2195,13 +2189,13 @@
         <v>59389</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
@@ -2210,19 +2204,19 @@
         <v>85834</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>883</v>
@@ -2231,13 +2225,13 @@
         <v>945392</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>1186</v>
@@ -2246,13 +2240,13 @@
         <v>1273202</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>2069</v>
@@ -2261,13 +2255,13 @@
         <v>2218594</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2276,13 @@
         <v>971837</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1242</v>
@@ -2297,13 +2291,13 @@
         <v>1332591</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2148</v>
@@ -2312,18 +2306,18 @@
         <v>2304428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2335,13 +2329,13 @@
         <v>65273</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -2350,13 +2344,13 @@
         <v>102884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>158</v>
@@ -2365,19 +2359,19 @@
         <v>168158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1791</v>
@@ -2386,13 +2380,13 @@
         <v>1894749</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1532</v>
@@ -2401,13 +2395,13 @@
         <v>1647878</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3323</v>
@@ -2416,13 +2410,13 @@
         <v>3542626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2431,13 @@
         <v>1960022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1629</v>
@@ -2452,13 +2446,13 @@
         <v>1750762</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3481</v>
@@ -2467,18 +2461,18 @@
         <v>3710784</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2490,13 +2484,13 @@
         <v>24891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2505,13 +2499,13 @@
         <v>32933</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -2520,19 +2514,19 @@
         <v>57823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>416</v>
@@ -2541,13 +2535,13 @@
         <v>455441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>381</v>
@@ -2556,13 +2550,13 @@
         <v>424721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>797</v>
@@ -2571,13 +2565,13 @@
         <v>880163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2586,13 @@
         <v>480332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>411</v>
@@ -2607,13 +2601,13 @@
         <v>457654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>848</v>
@@ -2622,13 +2616,13 @@
         <v>937986</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2639,13 @@
         <v>116610</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -2660,13 +2654,13 @@
         <v>195206</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -2675,19 +2669,19 @@
         <v>311815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3090</v>
@@ -2696,13 +2690,13 @@
         <v>3295581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>3099</v>
@@ -2711,13 +2705,13 @@
         <v>3345801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>6189</v>
@@ -2726,13 +2720,13 @@
         <v>6641383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2741,13 @@
         <v>3412191</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3282</v>
@@ -2762,13 +2756,13 @@
         <v>3541007</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6477</v>
@@ -2777,18 +2771,18 @@
         <v>6953198</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE630392-1AE5-42B0-8BB7-86934C630AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E171775-84A6-4705-A36D-623CB2ECE0C9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2824,7 +2818,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2931,13 +2925,13 @@
         <v>20088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -2946,13 +2940,13 @@
         <v>39832</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -2961,19 +2955,19 @@
         <v>59920</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>741</v>
@@ -2982,13 +2976,13 @@
         <v>734259</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>857</v>
@@ -2997,13 +2991,13 @@
         <v>954828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1598</v>
@@ -3012,13 +3006,13 @@
         <v>1689087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3027,13 @@
         <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>892</v>
@@ -3048,13 +3042,13 @@
         <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>1654</v>
@@ -3063,18 +3057,18 @@
         <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3086,13 +3080,13 @@
         <v>59387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -3101,13 +3095,13 @@
         <v>110922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -3116,19 +3110,19 @@
         <v>170309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1896</v>
@@ -3137,13 +3131,13 @@
         <v>2016998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1802</v>
@@ -3152,13 +3146,13 @@
         <v>1877378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3698</v>
@@ -3167,13 +3161,13 @@
         <v>3894376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3182,13 @@
         <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1908</v>
@@ -3203,13 +3197,13 @@
         <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3860</v>
@@ -3218,18 +3212,18 @@
         <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3241,13 +3235,13 @@
         <v>24762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -3256,13 +3250,13 @@
         <v>38678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -3271,19 +3265,19 @@
         <v>63439</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>478</v>
@@ -3292,13 +3286,13 @@
         <v>522124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>491</v>
@@ -3307,13 +3301,13 @@
         <v>510462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>969</v>
@@ -3322,13 +3316,13 @@
         <v>1032587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3337,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -3358,13 +3352,13 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
@@ -3373,13 +3367,13 @@
         <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3390,13 @@
         <v>104236</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>176</v>
@@ -3411,13 +3405,13 @@
         <v>189432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -3429,16 +3423,16 @@
         <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3115</v>
@@ -3447,13 +3441,13 @@
         <v>3273382</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>3150</v>
@@ -3462,13 +3456,13 @@
         <v>3342668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>6265</v>
@@ -3477,13 +3471,13 @@
         <v>6616050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3492,13 @@
         <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3326</v>
@@ -3513,13 +3507,13 @@
         <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6541</v>
@@ -3528,18 +3522,18 @@
         <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1152AC0D-5C6B-4A5E-9D8D-3397A4D441F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6299C9AD-E490-457F-AAB4-8C7E5C446B7D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,13 +3676,13 @@
         <v>9444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -3697,13 +3691,13 @@
         <v>29442</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -3712,19 +3706,19 @@
         <v>38886</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>679</v>
@@ -3733,13 +3727,13 @@
         <v>530598</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>1374</v>
@@ -3748,13 +3742,13 @@
         <v>802126</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>2053</v>
@@ -3763,13 +3757,13 @@
         <v>1332725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3778,13 @@
         <v>540042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1423</v>
@@ -3799,13 +3793,13 @@
         <v>831568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2112</v>
@@ -3814,18 +3808,18 @@
         <v>1371611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3837,13 +3831,13 @@
         <v>85705</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -3852,13 +3846,13 @@
         <v>122330</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>217</v>
@@ -3867,19 +3861,19 @@
         <v>208035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1918</v>
@@ -3888,13 +3882,13 @@
         <v>2076317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>2777</v>
@@ -3903,13 +3897,13 @@
         <v>2126465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>4695</v>
@@ -3918,13 +3912,13 @@
         <v>4202782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3933,13 @@
         <v>2162022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>2920</v>
@@ -3954,13 +3948,13 @@
         <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>4912</v>
@@ -3969,18 +3963,18 @@
         <v>4410817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3992,13 +3986,13 @@
         <v>16573</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4007,13 +4001,13 @@
         <v>40439</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -4022,19 +4016,19 @@
         <v>57011</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>663</v>
@@ -4043,13 +4037,13 @@
         <v>656466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
@@ -4058,13 +4052,13 @@
         <v>673447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>1614</v>
@@ -4073,13 +4067,13 @@
         <v>1329915</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4088,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1004</v>
@@ -4109,13 +4103,13 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1685</v>
@@ -4124,13 +4118,13 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4141,13 @@
         <v>111722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -4162,13 +4156,13 @@
         <v>192211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>347</v>
@@ -4177,19 +4171,19 @@
         <v>303933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3260</v>
@@ -4198,13 +4192,13 @@
         <v>3263382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>5102</v>
@@ -4213,13 +4207,13 @@
         <v>3602039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>8362</v>
@@ -4228,13 +4222,13 @@
         <v>6865421</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4243,13 @@
         <v>3375104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>5347</v>
@@ -4264,13 +4258,13 @@
         <v>3794250</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>8709</v>
@@ -4279,18 +4273,18 @@
         <v>7169354</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F15F244-382B-4840-B737-7FDD17FBA5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54ABA676-9BD8-4E76-8721-686ED3A4EE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E4F4F05-550C-4F3D-9880-E4E03086C71D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0551D019-2B60-4075-8D1C-EEE97AAECCD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,124 +71,118 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>97,48%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,697 +191,673 @@
     <t>4,05%</t>
   </si>
   <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1492628-169B-4864-8DF0-2BE6850B9ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3A4718-D580-4028-A5E7-C5C7F5168A57}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,13 +1429,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1018</v>
@@ -1474,13 +1444,13 @@
         <v>1011686</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1244</v>
@@ -1489,13 +1459,13 @@
         <v>1267115</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2262</v>
@@ -1504,13 +1474,13 @@
         <v>2278801</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,13 +1495,13 @@
         <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1291</v>
@@ -1540,13 +1510,13 @@
         <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2329</v>
@@ -1555,18 +1525,18 @@
         <v>2346836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1578,13 +1548,13 @@
         <v>35856</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -1593,13 +1563,13 @@
         <v>64905</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -1608,19 +1578,19 @@
         <v>100761</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1614</v>
@@ -1629,13 +1599,13 @@
         <v>1656538</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1490</v>
@@ -1644,13 +1614,13 @@
         <v>1522768</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3104</v>
@@ -1659,13 +1629,13 @@
         <v>3179307</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,13 +1650,13 @@
         <v>1692394</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1554</v>
@@ -1695,13 +1665,13 @@
         <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3202</v>
@@ -1710,18 +1680,18 @@
         <v>3280068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1733,13 +1703,13 @@
         <v>22320</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -1748,13 +1718,13 @@
         <v>19374</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -1763,19 +1733,19 @@
         <v>41694</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>507</v>
@@ -1784,13 +1754,13 @@
         <v>529088</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>435</v>
@@ -1799,13 +1769,13 @@
         <v>457038</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>942</v>
@@ -1814,13 +1784,13 @@
         <v>986126</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,13 +1805,13 @@
         <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1850,13 +1820,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>979</v>
@@ -1865,13 +1835,13 @@
         <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1858,13 @@
         <v>78213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -1903,13 +1873,13 @@
         <v>132277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -1918,19 +1888,19 @@
         <v>210489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3139</v>
@@ -1939,13 +1909,13 @@
         <v>3197312</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>3169</v>
@@ -1954,28 +1924,28 @@
         <v>3246921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>6308</v>
       </c>
       <c r="N14" s="7">
-        <v>6444234</v>
+        <v>6444233</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +1960,13 @@
         <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3297</v>
@@ -2005,33 +1975,33 @@
         <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22868D4-CF26-44FC-A470-3A34C550EFB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48559EF-EC6C-4F64-8467-525922C434ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2067,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2174,13 +2144,13 @@
         <v>26445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -2189,13 +2159,13 @@
         <v>59389</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
@@ -2204,19 +2174,19 @@
         <v>85834</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>883</v>
@@ -2225,13 +2195,13 @@
         <v>945392</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>1186</v>
@@ -2240,13 +2210,13 @@
         <v>1273202</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>2069</v>
@@ -2255,13 +2225,13 @@
         <v>2218594</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2246,13 @@
         <v>971837</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1242</v>
@@ -2291,13 +2261,13 @@
         <v>1332591</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2148</v>
@@ -2306,18 +2276,18 @@
         <v>2304428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2329,13 +2299,13 @@
         <v>65273</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -2344,13 +2314,13 @@
         <v>102884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>158</v>
@@ -2359,19 +2329,19 @@
         <v>168158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1791</v>
@@ -2380,13 +2350,13 @@
         <v>1894749</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>1532</v>
@@ -2395,13 +2365,13 @@
         <v>1647878</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>3323</v>
@@ -2410,13 +2380,13 @@
         <v>3542626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2401,13 @@
         <v>1960022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1629</v>
@@ -2446,13 +2416,13 @@
         <v>1750762</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3481</v>
@@ -2461,18 +2431,18 @@
         <v>3710784</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2484,13 +2454,13 @@
         <v>24891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2499,13 +2469,13 @@
         <v>32933</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -2514,19 +2484,19 @@
         <v>57823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>416</v>
@@ -2535,13 +2505,13 @@
         <v>455441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>381</v>
@@ -2550,13 +2520,13 @@
         <v>424721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>797</v>
@@ -2565,13 +2535,13 @@
         <v>880163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2556,13 @@
         <v>480332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>411</v>
@@ -2601,13 +2571,13 @@
         <v>457654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>848</v>
@@ -2616,13 +2586,13 @@
         <v>937986</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2609,13 @@
         <v>116610</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -2654,13 +2624,13 @@
         <v>195206</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -2669,19 +2639,19 @@
         <v>311815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3090</v>
@@ -2690,13 +2660,13 @@
         <v>3295581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>3099</v>
@@ -2705,13 +2675,13 @@
         <v>3345801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>6189</v>
@@ -2720,13 +2690,13 @@
         <v>6641383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2711,13 @@
         <v>3412191</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3282</v>
@@ -2756,13 +2726,13 @@
         <v>3541007</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6477</v>
@@ -2771,18 +2741,18 @@
         <v>6953198</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E171775-84A6-4705-A36D-623CB2ECE0C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B69D6C-B2CE-4269-A5A7-C1A9715C505B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,7 +2788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2925,13 +2895,13 @@
         <v>20088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -2940,13 +2910,13 @@
         <v>39832</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -2955,19 +2925,19 @@
         <v>59920</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>741</v>
@@ -2976,13 +2946,13 @@
         <v>734259</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>857</v>
@@ -2991,13 +2961,13 @@
         <v>954828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>1598</v>
@@ -3006,13 +2976,13 @@
         <v>1689087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +2997,13 @@
         <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>892</v>
@@ -3042,13 +3012,13 @@
         <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1654</v>
@@ -3057,18 +3027,18 @@
         <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3080,13 +3050,13 @@
         <v>59387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -3095,13 +3065,13 @@
         <v>110922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -3110,19 +3080,19 @@
         <v>170309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1896</v>
@@ -3131,13 +3101,13 @@
         <v>2016998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>1802</v>
@@ -3146,13 +3116,13 @@
         <v>1877378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>3698</v>
@@ -3161,13 +3131,13 @@
         <v>3894376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3152,13 @@
         <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1908</v>
@@ -3197,13 +3167,13 @@
         <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3860</v>
@@ -3212,18 +3182,18 @@
         <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3235,13 +3205,13 @@
         <v>24762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -3250,13 +3220,13 @@
         <v>38678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -3265,19 +3235,19 @@
         <v>63439</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>478</v>
@@ -3286,13 +3256,13 @@
         <v>522124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>491</v>
@@ -3301,13 +3271,13 @@
         <v>510462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>969</v>
@@ -3316,13 +3286,13 @@
         <v>1032587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3307,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -3352,13 +3322,13 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
@@ -3367,13 +3337,13 @@
         <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3360,13 @@
         <v>104236</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>176</v>
@@ -3405,13 +3375,13 @@
         <v>189432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -3420,19 +3390,19 @@
         <v>293668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3115</v>
@@ -3441,13 +3411,13 @@
         <v>3273382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>3150</v>
@@ -3456,13 +3426,13 @@
         <v>3342668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>6265</v>
@@ -3471,13 +3441,13 @@
         <v>6616050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3462,13 @@
         <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3326</v>
@@ -3507,13 +3477,13 @@
         <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6541</v>
@@ -3522,18 +3492,18 @@
         <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6299C9AD-E490-457F-AAB4-8C7E5C446B7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AE430F-6633-45C8-8221-5A1DF0303DC4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3569,7 +3539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3676,13 +3646,13 @@
         <v>9444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -3691,13 +3661,13 @@
         <v>29442</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -3706,19 +3676,19 @@
         <v>38886</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>679</v>
@@ -3727,13 +3697,13 @@
         <v>530598</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>1374</v>
@@ -3742,13 +3712,13 @@
         <v>802126</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>2053</v>
@@ -3757,13 +3727,13 @@
         <v>1332725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3748,13 @@
         <v>540042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1423</v>
@@ -3793,13 +3763,13 @@
         <v>831568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2112</v>
@@ -3808,18 +3778,18 @@
         <v>1371611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3831,13 +3801,13 @@
         <v>85705</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -3846,13 +3816,13 @@
         <v>122330</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>217</v>
@@ -3861,19 +3831,19 @@
         <v>208035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1918</v>
@@ -3882,28 +3852,28 @@
         <v>2076317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>2777</v>
       </c>
       <c r="I8" s="7">
-        <v>2126465</v>
+        <v>2126466</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>4695</v>
@@ -3912,13 +3882,13 @@
         <v>4202782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,28 +3903,28 @@
         <v>2162022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>4912</v>
@@ -3963,18 +3933,18 @@
         <v>4410817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3986,13 +3956,13 @@
         <v>16573</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4001,13 +3971,13 @@
         <v>40439</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -4016,19 +3986,19 @@
         <v>57011</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>663</v>
@@ -4037,13 +4007,13 @@
         <v>656466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
@@ -4052,13 +4022,13 @@
         <v>673447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>1614</v>
@@ -4067,13 +4037,13 @@
         <v>1329915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4058,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1004</v>
@@ -4103,13 +4073,13 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1685</v>
@@ -4118,13 +4088,13 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4111,13 @@
         <v>111722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -4156,13 +4126,13 @@
         <v>192211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>347</v>
@@ -4171,19 +4141,19 @@
         <v>303933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3260</v>
@@ -4192,13 +4162,13 @@
         <v>3263382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>5102</v>
@@ -4207,13 +4177,13 @@
         <v>3602039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>8362</v>
@@ -4222,13 +4192,13 @@
         <v>6865421</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4213,13 @@
         <v>3375104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>5347</v>
@@ -4258,13 +4228,13 @@
         <v>3794250</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>8709</v>
@@ -4273,18 +4243,18 @@
         <v>7169354</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54ABA676-9BD8-4E76-8721-686ED3A4EE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA4FD78-A6C3-4DF3-BAD0-7062330DE78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0551D019-2B60-4075-8D1C-EEE97AAECCD7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4E460C69-5365-49C5-93F3-3B0E4FC08C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -692,172 +692,184 @@
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>92,64%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3A4718-D580-4028-A5E7-C5C7F5168A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37D3DC-CC7D-4878-A058-3AD95A84422A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1471,7 +1483,7 @@
         <v>2262</v>
       </c>
       <c r="N5" s="7">
-        <v>2278801</v>
+        <v>2278800</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1522,7 +1534,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -1626,7 +1638,7 @@
         <v>3104</v>
       </c>
       <c r="N8" s="7">
-        <v>3179307</v>
+        <v>3179306</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1677,7 +1689,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -1921,7 +1933,7 @@
         <v>3169</v>
       </c>
       <c r="I14" s="7">
-        <v>3246921</v>
+        <v>3246920</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1972,7 +1984,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -2020,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48559EF-EC6C-4F64-8467-525922C434ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5EBA6F-DE0C-40B0-8AA6-24D1BEA60E49}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2771,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B69D6C-B2CE-4269-A5A7-C1A9715C505B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1ADC57-0486-47A3-9EBE-D47AD0E208A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3232,7 +3244,7 @@
         <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>63439</v>
+        <v>63440</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>189</v>
@@ -3334,7 +3346,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -3522,7 +3534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AE430F-6633-45C8-8221-5A1DF0303DC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0187D38-7A9F-497E-A546-1DA81D220205}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3643,28 +3655,28 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>9444</v>
+        <v>8759</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>29442</v>
+        <v>26296</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>221</v>
@@ -3673,16 +3685,16 @@
         <v>59</v>
       </c>
       <c r="N4" s="7">
-        <v>38886</v>
+        <v>35055</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,43 +3706,43 @@
         <v>679</v>
       </c>
       <c r="D5" s="7">
-        <v>530598</v>
+        <v>504693</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>1374</v>
       </c>
       <c r="I5" s="7">
-        <v>802126</v>
+        <v>725436</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>2053</v>
       </c>
       <c r="N5" s="7">
-        <v>1332725</v>
+        <v>1230128</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>230</v>
@@ -3745,7 +3757,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>540042</v>
+        <v>513452</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -3760,7 +3772,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831568</v>
+        <v>751732</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -3775,7 +3787,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1371611</v>
+        <v>1265183</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -3798,46 +3810,46 @@
         <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>85705</v>
+        <v>85028</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
       </c>
       <c r="I7" s="7">
-        <v>122330</v>
+        <v>166013</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>217</v>
       </c>
       <c r="N7" s="7">
-        <v>208035</v>
+        <v>251041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,46 +3861,46 @@
         <v>1918</v>
       </c>
       <c r="D8" s="7">
-        <v>2076317</v>
+        <v>2205299</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>2777</v>
       </c>
       <c r="I8" s="7">
-        <v>2126466</v>
+        <v>2071132</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>58</v>
       </c>
       <c r="M8" s="7">
         <v>4695</v>
       </c>
       <c r="N8" s="7">
-        <v>4202782</v>
+        <v>4276431</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,7 +3912,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -3915,7 +3927,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3930,7 +3942,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -3953,28 +3965,28 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>16573</v>
+        <v>17131</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>40439</v>
+        <v>37373</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>248</v>
@@ -3983,16 +3995,16 @@
         <v>71</v>
       </c>
       <c r="N10" s="7">
-        <v>57011</v>
+        <v>54504</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4016,13 @@
         <v>663</v>
       </c>
       <c r="D11" s="7">
-        <v>656466</v>
+        <v>629492</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>253</v>
@@ -4019,7 +4031,7 @@
         <v>951</v>
       </c>
       <c r="I11" s="7">
-        <v>673447</v>
+        <v>623090</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>254</v>
@@ -4028,22 +4040,22 @@
         <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>1614</v>
       </c>
       <c r="N11" s="7">
-        <v>1329915</v>
+        <v>1252582</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4067,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -4070,7 +4082,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -4085,7 +4097,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -4108,7 +4120,7 @@
         <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>111722</v>
+        <v>110918</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>259</v>
@@ -4117,37 +4129,37 @@
         <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
       </c>
       <c r="I13" s="7">
-        <v>192211</v>
+        <v>229682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>347</v>
       </c>
       <c r="N13" s="7">
-        <v>303933</v>
+        <v>340600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,46 +4171,46 @@
         <v>3260</v>
       </c>
       <c r="D14" s="7">
-        <v>3263382</v>
+        <v>3339484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>5102</v>
       </c>
       <c r="I14" s="7">
-        <v>3602039</v>
+        <v>3419657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>8362</v>
       </c>
       <c r="N14" s="7">
-        <v>6865421</v>
+        <v>6759142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,7 +4222,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375104</v>
+        <v>3450402</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4225,7 +4237,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3794250</v>
+        <v>3649339</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4240,7 +4252,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169354</v>
+        <v>7099742</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
